--- a/apps/load_data/2022/01/PLMOVMAE.xlsx
+++ b/apps/load_data/2022/01/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2022\HHY0122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-\HHY0122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BC5C0A-8371-40DD-8A72-E1D47E64C0A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE9DC4E-80A9-461F-8877-E8C10F1F605E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$270</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11682" uniqueCount="3462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11662" uniqueCount="3459">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7291,9 +7292,6 @@
     <t>0127A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8581,9 +8579,6 @@
     <t>0091A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8906,9 +8901,6 @@
   </si>
   <si>
     <t>0062A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10414,7 +10406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11254,10 +11246,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD232" sqref="AC171:AD232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43310,12 +43304,7 @@
       <c r="AB171" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -43368,16 +43357,16 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="BM171" s="1" t="s">
         <v>118</v>
@@ -43392,13 +43381,13 @@
         <v>162</v>
       </c>
       <c r="BR171" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BS171" s="3">
         <v>36225</v>
       </c>
       <c r="BT171" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU171" s="1" t="s">
         <v>122</v>
@@ -43419,19 +43408,19 @@
         <v>112</v>
       </c>
       <c r="CC171" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="CD171" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="CD171" s="1" t="s">
+      <c r="CE171" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CG171" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="CG171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="CH171" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>130</v>
@@ -43469,19 +43458,19 @@
         <v>96</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="Q172" s="3">
         <v>27241</v>
@@ -43510,12 +43499,7 @@
       <c r="AB172" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43562,7 +43546,7 @@
         <v>112</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BB172" s="1">
         <v>1</v>
@@ -43571,13 +43555,13 @@
         <v>22</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1771</v>
@@ -43592,13 +43576,13 @@
         <v>102</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BS172" s="3">
         <v>36949</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>122</v>
@@ -43622,16 +43606,16 @@
         <v>112</v>
       </c>
       <c r="CC172" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="CD172" s="1" t="s">
         <v>2110</v>
       </c>
       <c r="CE172" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CG172" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="CG172" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="CH172" s="1" t="s">
         <v>1776</v>
@@ -43672,19 +43656,19 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="Q173" s="3">
         <v>25223</v>
@@ -43713,12 +43697,7 @@
       <c r="AB173" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43765,7 +43744,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BB173" s="1">
         <v>1</v>
@@ -43774,16 +43753,16 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43798,13 +43777,13 @@
         <v>162</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BS173" s="3">
         <v>36825</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43828,19 +43807,19 @@
         <v>112</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43878,19 +43857,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="Q174" s="3">
         <v>27018</v>
@@ -43916,12 +43895,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43971,7 +43945,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BB174" s="1">
         <v>1</v>
@@ -43980,13 +43954,13 @@
         <v>22</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>978</v>
@@ -43998,7 +43972,7 @@
         <v>106</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -44016,16 +43990,16 @@
         <v>112</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>984</v>
@@ -44066,19 +44040,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="Q175" s="3">
         <v>29037</v>
@@ -44107,12 +44081,7 @@
       <c r="AB175" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -44162,7 +44131,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BB175" s="1">
         <v>1</v>
@@ -44171,13 +44140,13 @@
         <v>22</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>880</v>
@@ -44189,7 +44158,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44210,13 +44179,13 @@
         <v>700</v>
       </c>
       <c r="CD175" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="CE175" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>885</v>
@@ -44257,19 +44226,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="Q176" s="3">
         <v>26647</v>
@@ -44295,12 +44264,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44350,7 +44314,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BB176" s="1">
         <v>1</v>
@@ -44359,16 +44323,16 @@
         <v>22</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2489</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>118</v>
@@ -44377,7 +44341,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44395,19 +44359,19 @@
         <v>112</v>
       </c>
       <c r="CC176" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="CD176" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="CD176" s="1" t="s">
-        <v>2491</v>
-      </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="CG176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>130</v>
@@ -44445,19 +44409,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="Q177" s="3">
         <v>25405</v>
@@ -44489,12 +44453,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44541,7 +44500,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BB177" s="1">
         <v>1</v>
@@ -44550,16 +44509,16 @@
         <v>22</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>118</v>
@@ -44571,13 +44530,13 @@
         <v>119</v>
       </c>
       <c r="BR177" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BS177" s="3">
         <v>35243</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44595,19 +44554,19 @@
         <v>112</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CD177" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CD177" s="1" t="s">
+      <c r="CE177" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CG177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>130</v>
@@ -44645,19 +44604,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="Q178" s="3">
         <v>28845</v>
@@ -44683,12 +44642,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44738,7 +44692,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BB178" s="1">
         <v>1</v>
@@ -44747,16 +44701,16 @@
         <v>22</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="BI178" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="BI178" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>118</v>
@@ -44765,7 +44719,7 @@
         <v>106</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44783,19 +44737,19 @@
         <v>112</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CG178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>130</v>
@@ -44833,19 +44787,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="Q179" s="3">
         <v>21425</v>
@@ -44871,12 +44825,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44926,7 +44875,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BB179" s="1">
         <v>1</v>
@@ -44935,13 +44884,13 @@
         <v>22</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>771</v>
@@ -44956,7 +44905,7 @@
         <v>162</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -44974,16 +44923,16 @@
         <v>112</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>777</v>
@@ -45018,25 +44967,25 @@
         <v>94</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="Q180" s="3">
         <v>23286</v>
@@ -45065,12 +45014,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -45120,7 +45064,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB180" s="1">
         <v>1</v>
@@ -45129,13 +45073,13 @@
         <v>22</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BM180" s="1" t="s">
         <v>118</v>
@@ -45144,7 +45088,7 @@
         <v>106</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45156,7 +45100,7 @@
         <v>111</v>
       </c>
       <c r="BZ180" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CA180" s="1" t="s">
         <v>124</v>
@@ -45165,16 +45109,16 @@
         <v>112</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>130</v>
@@ -45215,19 +45159,19 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="Q181" s="3">
         <v>26907</v>
@@ -45253,12 +45197,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2422</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -45305,7 +45244,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BB181" s="1">
         <v>1</v>
@@ -45314,16 +45253,16 @@
         <v>22</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45335,13 +45274,13 @@
         <v>119</v>
       </c>
       <c r="BR181" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BS181" s="3">
         <v>35950</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45359,19 +45298,19 @@
         <v>112</v>
       </c>
       <c r="CC181" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="CD181" s="1" t="s">
         <v>1909</v>
       </c>
       <c r="CE181" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CG181" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CG181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="CH181" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="CI181" s="1" t="s">
         <v>130</v>
@@ -45409,19 +45348,19 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="Q182" s="3">
         <v>28642</v>
@@ -45499,7 +45438,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BB182" s="1">
         <v>1</v>
@@ -45508,13 +45447,13 @@
         <v>22</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1976</v>
@@ -45529,7 +45468,7 @@
         <v>162</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45547,16 +45486,16 @@
         <v>112</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>1982</v>
@@ -45597,19 +45536,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2576</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="Q183" s="3">
         <v>28239</v>
@@ -45681,7 +45620,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB183" s="1">
         <v>1</v>
@@ -45690,16 +45629,16 @@
         <v>22</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>118</v>
@@ -45711,13 +45650,13 @@
         <v>221</v>
       </c>
       <c r="BR183" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BS183" s="3">
         <v>36099</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45735,19 +45674,19 @@
         <v>112</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="CG183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2589</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>130</v>
@@ -45785,19 +45724,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="Q184" s="3">
         <v>25589</v>
@@ -45866,7 +45805,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BB184" s="1">
         <v>1</v>
@@ -45875,13 +45814,13 @@
         <v>22</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1989</v>
@@ -45896,13 +45835,13 @@
         <v>102</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BS184" s="3">
         <v>37735</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45920,16 +45859,16 @@
         <v>112</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1996</v>
@@ -45970,19 +45909,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="Q185" s="3">
         <v>29170</v>
@@ -46057,7 +45996,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BB185" s="1">
         <v>1</v>
@@ -46066,13 +46005,13 @@
         <v>22</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>118</v>
@@ -46081,7 +46020,7 @@
         <v>106</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -46099,16 +46038,16 @@
         <v>112</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>915</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>130</v>
@@ -46149,19 +46088,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="Q186" s="3">
         <v>27250</v>
@@ -46194,7 +46133,7 @@
         <v>107</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="AH186" s="1" t="s">
         <v>2024</v>
@@ -46239,7 +46178,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BB186" s="1">
         <v>1</v>
@@ -46248,13 +46187,13 @@
         <v>22</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -46263,7 +46202,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46284,13 +46223,13 @@
         <v>1683</v>
       </c>
       <c r="CD186" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CE186" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>130</v>
@@ -46331,19 +46270,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="Q187" s="3">
         <v>27999</v>
@@ -46418,7 +46357,7 @@
         <v>112</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BB187" s="1">
         <v>1</v>
@@ -46427,16 +46366,16 @@
         <v>22</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46448,13 +46387,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BS187" s="3">
         <v>43602</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46478,13 +46417,13 @@
         <v>1005</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>130</v>
@@ -46522,19 +46461,19 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="Q188" s="3">
         <v>29305</v>
@@ -46609,7 +46548,7 @@
         <v>112</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BB188" s="1">
         <v>1</v>
@@ -46618,13 +46557,13 @@
         <v>22</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46633,7 +46572,7 @@
         <v>106</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46651,16 +46590,16 @@
         <v>112</v>
       </c>
       <c r="CC188" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CD188" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="CD188" s="1" t="s">
+      <c r="CE188" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2650</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>130</v>
@@ -46701,19 +46640,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="Q189" s="3">
         <v>23125</v>
@@ -46749,7 +46688,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>107</v>
@@ -46803,16 +46742,16 @@
         <v>22</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46824,13 +46763,13 @@
         <v>221</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BS189" s="3">
         <v>36580</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46851,7 +46790,7 @@
         <v>112</v>
       </c>
       <c r="CC189" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="CD189" s="1" t="s">
         <v>298</v>
@@ -46860,10 +46799,10 @@
         <v>1716</v>
       </c>
       <c r="CG189" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="CH189" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>130</v>
@@ -46901,19 +46840,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="Q190" s="3">
         <v>30023</v>
@@ -46991,13 +46930,13 @@
         <v>22</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>1191</v>
@@ -47012,13 +46951,13 @@
         <v>119</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BS190" s="3">
         <v>37747</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47042,10 +46981,10 @@
         <v>684</v>
       </c>
       <c r="CE190" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="CG190" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>1197</v>
@@ -47086,19 +47025,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q191" s="3">
         <v>26205</v>
@@ -47179,13 +47118,13 @@
         <v>22</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>118</v>
@@ -47194,7 +47133,7 @@
         <v>106</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47212,16 +47151,16 @@
         <v>112</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>130</v>
@@ -47262,19 +47201,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="Q192" s="3">
         <v>31662</v>
@@ -47358,16 +47297,16 @@
         <v>22</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BI192" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47379,7 +47318,7 @@
         <v>162</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47397,19 +47336,19 @@
         <v>112</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CG192" s="1" t="s">
-        <v>2695</v>
-      </c>
       <c r="CH192" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>130</v>
@@ -47447,19 +47386,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2698</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="Q193" s="3">
         <v>29117</v>
@@ -47537,16 +47476,16 @@
         <v>22</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -47558,13 +47497,13 @@
         <v>102</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BS193" s="3">
         <v>37334</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47585,16 +47524,16 @@
         <v>521</v>
       </c>
       <c r="CD193" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CE193" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CG193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -47632,19 +47571,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="Q194" s="3">
         <v>30007</v>
@@ -47722,16 +47661,16 @@
         <v>22</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47743,13 +47682,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BS194" s="3">
         <v>37904</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47770,16 +47709,16 @@
         <v>1005</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47817,19 +47756,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2723</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2724</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="Q195" s="3">
         <v>26221</v>
@@ -47907,13 +47846,13 @@
         <v>22</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47925,13 +47864,13 @@
         <v>119</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BS195" s="3">
         <v>36111</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47949,16 +47888,16 @@
         <v>112</v>
       </c>
       <c r="CC195" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="CD195" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="CE195" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="CG195" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>130</v>
@@ -47999,19 +47938,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="Q196" s="3">
         <v>27571</v>
@@ -48089,16 +48028,16 @@
         <v>22</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48110,13 +48049,13 @@
         <v>119</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BS196" s="3">
         <v>37785</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48134,19 +48073,19 @@
         <v>112</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2745</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -48178,16 +48117,16 @@
         <v>94</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -48265,7 +48204,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48280,7 +48219,7 @@
         <v>0</v>
       </c>
       <c r="BZ197" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CA197" s="1" t="s">
         <v>124</v>
@@ -48289,7 +48228,7 @@
         <v>112</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="CG197" s="1" t="s">
         <v>130</v>
@@ -48333,19 +48272,19 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="Q198" s="3">
         <v>30993</v>
@@ -48420,7 +48359,7 @@
         <v>112</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BB198" s="1">
         <v>1</v>
@@ -48429,13 +48368,13 @@
         <v>22</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>880</v>
@@ -48447,7 +48386,7 @@
         <v>106</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48465,16 +48404,16 @@
         <v>112</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>885</v>
@@ -48515,19 +48454,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="Q199" s="3">
         <v>30065</v>
@@ -48602,7 +48541,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BB199" s="1">
         <v>1</v>
@@ -48611,13 +48550,13 @@
         <v>22</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1191</v>
@@ -48629,7 +48568,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48647,16 +48586,16 @@
         <v>112</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="CD199" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="CE199" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="CG199" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>1197</v>
@@ -48697,19 +48636,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2773</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2774</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="Q200" s="3">
         <v>30033</v>
@@ -48784,7 +48723,7 @@
         <v>112</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="BB200" s="1">
         <v>1</v>
@@ -48793,7 +48732,7 @@
         <v>22</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
@@ -48808,7 +48747,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48829,10 +48768,10 @@
         <v>1180</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2779</v>
-      </c>
-      <c r="CE200" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="CG200" s="1" t="s">
         <v>2181</v>
@@ -48876,19 +48815,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="Q201" s="3">
         <v>29411</v>
@@ -48963,7 +48902,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BB201" s="1">
         <v>1</v>
@@ -48972,13 +48911,13 @@
         <v>22</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1191</v>
@@ -48996,13 +48935,13 @@
         <v>162</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="BS201" s="3">
         <v>37513</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -49020,16 +48959,16 @@
         <v>112</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1197</v>
@@ -49070,19 +49009,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="Q202" s="3">
         <v>32173</v>
@@ -49160,16 +49099,16 @@
         <v>22</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BI202" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>118</v>
@@ -49181,13 +49120,13 @@
         <v>102</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BS202" s="3">
         <v>41024</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49205,19 +49144,19 @@
         <v>112</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CH202" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2804</v>
       </c>
       <c r="CI202" s="1" t="s">
         <v>130</v>
@@ -49237,7 +49176,7 @@
         <v>430</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>112</v>
@@ -49249,16 +49188,16 @@
         <v>94</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2808</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -49288,7 +49227,7 @@
         <v>107</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>2024</v>
@@ -49333,7 +49272,7 @@
         <v>112</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -49342,7 +49281,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49360,7 +49299,7 @@
         <v>0</v>
       </c>
       <c r="BZ203" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="CA203" s="1" t="s">
         <v>124</v>
@@ -49369,7 +49308,7 @@
         <v>112</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="CG203" s="1" t="s">
         <v>1947</v>
@@ -49413,19 +49352,19 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="Q204" s="3">
         <v>30408</v>
@@ -49494,7 +49433,7 @@
         <v>112</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BB204" s="1">
         <v>1</v>
@@ -49503,13 +49442,13 @@
         <v>22</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>771</v>
@@ -49524,13 +49463,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="BS204" s="3">
         <v>37336</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49548,16 +49487,16 @@
         <v>112</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>777</v>
@@ -49598,19 +49537,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="Q205" s="3">
         <v>28132</v>
@@ -49685,7 +49624,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BB205" s="1">
         <v>1</v>
@@ -49694,13 +49633,13 @@
         <v>22</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2378</v>
@@ -49712,7 +49651,7 @@
         <v>106</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49730,16 +49669,16 @@
         <v>112</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2833</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>2383</v>
@@ -49780,19 +49719,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2838</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2839</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="Q206" s="3">
         <v>31743</v>
@@ -49876,13 +49815,13 @@
         <v>22</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49891,7 +49830,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49909,16 +49848,16 @@
         <v>112</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2846</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>130</v>
@@ -49959,19 +49898,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q207" s="3">
         <v>23750</v>
@@ -50003,12 +49942,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -50058,7 +49992,7 @@
         <v>112</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="BB207" s="1">
         <v>1</v>
@@ -50067,16 +50001,16 @@
         <v>22</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -50085,7 +50019,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50109,16 +50043,16 @@
         <v>1233</v>
       </c>
       <c r="CD207" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="CE207" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="CG207" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CH207" s="1" t="s">
         <v>2859</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2860</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2861</v>
       </c>
       <c r="CI207" s="1" t="s">
         <v>130</v>
@@ -50138,7 +50072,7 @@
         <v>90</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>112</v>
@@ -50150,16 +50084,16 @@
         <v>94</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -50183,7 +50117,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>378</v>
@@ -50237,10 +50171,10 @@
         <v>112</v>
       </c>
       <c r="CC208" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE208" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="209" spans="1:87" x14ac:dyDescent="0.25">
@@ -50257,7 +50191,7 @@
         <v>1934</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>112</v>
@@ -50269,16 +50203,16 @@
         <v>94</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -50305,7 +50239,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>378</v>
@@ -50350,7 +50284,7 @@
         <v>0</v>
       </c>
       <c r="BZ209" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="CA209" s="1" t="s">
         <v>124</v>
@@ -50359,10 +50293,10 @@
         <v>112</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -50379,7 +50313,7 @@
         <v>430</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>112</v>
@@ -50391,16 +50325,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50427,7 +50361,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>378</v>
@@ -50472,7 +50406,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50481,10 +50415,10 @@
         <v>112</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -50501,7 +50435,7 @@
         <v>90</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>92</v>
@@ -50513,16 +50447,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50594,7 +50528,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>124</v>
@@ -50603,10 +50537,10 @@
         <v>112</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50623,7 +50557,7 @@
         <v>90</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50635,16 +50569,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50722,10 +50656,10 @@
         <v>112</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50742,7 +50676,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>92</v>
@@ -50754,16 +50688,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -50835,7 +50769,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>124</v>
@@ -50844,10 +50778,10 @@
         <v>112</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50864,7 +50798,7 @@
         <v>430</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50876,16 +50810,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50957,7 +50891,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -50966,10 +50900,10 @@
         <v>112</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51004,19 +50938,19 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2889</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2891</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="Q215" s="3">
         <v>26043</v>
@@ -51042,12 +50976,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -51100,13 +51029,13 @@
         <v>22</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>1976</v>
@@ -51121,13 +51050,13 @@
         <v>102</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="BS215" s="3">
         <v>36306</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -51145,16 +51074,16 @@
         <v>112</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2898</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2900</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>1982</v>
@@ -51195,19 +51124,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2901</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2903</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="Q216" s="3">
         <v>29945</v>
@@ -51233,12 +51162,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51294,13 +51218,13 @@
         <v>22</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>880</v>
@@ -51312,7 +51236,7 @@
         <v>106</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51330,16 +51254,16 @@
         <v>112</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="CD216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="CG216" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>885</v>
@@ -51380,19 +51304,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2911</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q217" s="3">
         <v>29034</v>
@@ -51421,12 +51345,7 @@
       <c r="AB217" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51479,13 +51398,13 @@
         <v>22</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1976</v>
@@ -51500,13 +51419,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BS217" s="3">
         <v>38234</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51524,16 +51443,16 @@
         <v>112</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>1982</v>
@@ -51574,19 +51493,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2922</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2924</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="Q218" s="3">
         <v>29062</v>
@@ -51612,12 +51531,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51673,16 +51587,16 @@
         <v>22</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="BI218" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51691,7 +51605,7 @@
         <v>106</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51709,19 +51623,19 @@
         <v>112</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="CD218" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2932</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>130</v>
@@ -51759,19 +51673,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2935</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="Q219" s="3">
         <v>29181</v>
@@ -51797,12 +51711,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51855,16 +51764,16 @@
         <v>22</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -51876,13 +51785,13 @@
         <v>221</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BS219" s="3">
         <v>37069</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51903,16 +51812,16 @@
         <v>788</v>
       </c>
       <c r="CD219" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="CE219" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CG219" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CH219" s="1" t="s">
         <v>2945</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2947</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>130</v>
@@ -51950,19 +51859,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2948</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2950</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="Q220" s="3">
         <v>30033</v>
@@ -51988,12 +51897,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -52049,7 +51953,7 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
@@ -52067,7 +51971,7 @@
         <v>106</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52085,13 +51989,13 @@
         <v>112</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="CD220" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2954</v>
-      </c>
-      <c r="CD220" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2956</v>
       </c>
       <c r="CG220" s="1" t="s">
         <v>2357</v>
@@ -52135,19 +52039,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2957</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2959</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="Q221" s="3">
         <v>26843</v>
@@ -52173,12 +52077,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2961</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -52225,7 +52124,7 @@
         <v>112</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BB221" s="1">
         <v>1</v>
@@ -52234,16 +52133,16 @@
         <v>22</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BJ221" s="1" t="s">
         <v>191</v>
@@ -52258,13 +52157,13 @@
         <v>221</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BS221" s="3">
         <v>35125</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52282,19 +52181,19 @@
         <v>112</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CG221" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>197</v>
@@ -52332,19 +52231,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="Q222" s="3">
         <v>25903</v>
@@ -52428,7 +52327,7 @@
         <v>22</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
@@ -52437,7 +52336,7 @@
         <v>118</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52455,13 +52354,13 @@
         <v>112</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CG222" s="1" t="s">
         <v>130</v>
@@ -52505,22 +52404,22 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="Q223" s="3">
         <v>28577</v>
@@ -52604,16 +52503,16 @@
         <v>22</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -52622,7 +52521,7 @@
         <v>106</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52643,16 +52542,16 @@
         <v>336</v>
       </c>
       <c r="CD223" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="CG223" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="CH223" s="1" t="s">
         <v>2989</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2990</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2992</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52690,19 +52589,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="Q224" s="3">
         <v>23039</v>
@@ -52783,13 +52682,13 @@
         <v>22</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>458</v>
@@ -52804,13 +52703,13 @@
         <v>221</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BS224" s="3">
         <v>34307</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52828,16 +52727,16 @@
         <v>112</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>465</v>
@@ -52860,7 +52759,7 @@
         <v>430</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>92</v>
@@ -52872,22 +52771,22 @@
         <v>94</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>3006</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>3007</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>3008</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>3009</v>
       </c>
       <c r="Q225" s="3">
         <v>17060</v>
@@ -52923,13 +52822,13 @@
         <v>42628</v>
       </c>
       <c r="AD225" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AF225" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>138</v>
@@ -52974,22 +52873,22 @@
         <v>112</v>
       </c>
       <c r="AZ225" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="BB225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="BI225" s="1" t="s">
         <v>3012</v>
-      </c>
-      <c r="BB225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD225" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="BH225" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="BI225" s="1" t="s">
-        <v>3015</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>118</v>
@@ -52998,7 +52897,7 @@
         <v>106</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -53007,7 +52906,7 @@
         <v>0</v>
       </c>
       <c r="BZ225" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CA225" s="1" t="s">
         <v>124</v>
@@ -53022,13 +52921,13 @@
         <v>126</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CI225" s="1" t="s">
         <v>130</v>
@@ -53042,13 +52941,13 @@
         <v>88</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>112</v>
@@ -53060,22 +52959,22 @@
         <v>94</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="Q226" s="3">
         <v>26864</v>
@@ -53108,7 +53007,7 @@
         <v>42735</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>107</v>
@@ -53162,10 +53061,10 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -53177,13 +53076,13 @@
         <v>221</v>
       </c>
       <c r="BR226" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BS226" s="3">
         <v>102</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53195,7 +53094,7 @@
         <v>111</v>
       </c>
       <c r="BZ226" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CA226" s="1" t="s">
         <v>124</v>
@@ -53204,16 +53103,16 @@
         <v>112</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>3033</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>3035</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>3036</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>130</v>
@@ -53233,7 +53132,7 @@
         <v>250</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>91</v>
@@ -53254,16 +53153,16 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="Q227" s="3">
         <v>25379</v>
@@ -53293,7 +53192,7 @@
         <v>39800</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>236</v>
@@ -53347,10 +53246,10 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53362,13 +53261,13 @@
         <v>1735</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BS227" s="3">
         <v>35915</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53398,10 +53297,10 @@
         <v>659</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53424,7 +53323,7 @@
         <v>90</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>112</v>
@@ -53436,22 +53335,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="Q228" s="3">
         <v>17470</v>
@@ -53481,7 +53380,7 @@
         <v>43100</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -53538,10 +53437,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53550,7 +53449,7 @@
         <v>106</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53574,16 +53473,16 @@
         <v>112</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53606,7 +53505,7 @@
         <v>90</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>112</v>
@@ -53618,22 +53517,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="Q229" s="3">
         <v>23356</v>
@@ -53663,7 +53562,7 @@
         <v>43105</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>107</v>
@@ -53717,10 +53616,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53732,13 +53631,13 @@
         <v>102</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BS229" s="3">
         <v>34412</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53747,7 +53646,7 @@
         <v>0</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>124</v>
@@ -53756,16 +53655,16 @@
         <v>112</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>2417</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>130</v>
@@ -53788,7 +53687,7 @@
         <v>1934</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>92</v>
@@ -53800,22 +53699,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="Q230" s="3">
         <v>17726</v>
@@ -53851,7 +53750,7 @@
         <v>43312</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>236</v>
@@ -53902,7 +53801,7 @@
         <v>112</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BB230" s="1">
         <v>0</v>
@@ -53911,10 +53810,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53923,7 +53822,7 @@
         <v>106</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53932,7 +53831,7 @@
         <v>0</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>124</v>
@@ -53941,16 +53840,16 @@
         <v>112</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CE230" s="1" t="s">
         <v>938</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53973,7 +53872,7 @@
         <v>90</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>92</v>
@@ -53985,22 +53884,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="Q231" s="3">
         <v>17041</v>
@@ -54027,7 +53926,7 @@
         <v>42735</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -54084,7 +53983,7 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -54093,7 +53992,7 @@
         <v>106</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -54105,7 +54004,7 @@
         <v>111</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>124</v>
@@ -54114,13 +54013,13 @@
         <v>112</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CG231" s="1" t="s">
         <v>130</v>
@@ -54146,7 +54045,7 @@
         <v>1934</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>112</v>
@@ -54158,22 +54057,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="Q232" s="3">
         <v>30147</v>
@@ -54199,17 +54098,12 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>378</v>
@@ -54257,10 +54151,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54272,13 +54166,13 @@
         <v>102</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BS232" s="3">
         <v>37124</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54287,7 +54181,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -54296,16 +54190,16 @@
         <v>112</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54346,16 +54240,16 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="Q233" s="3">
         <v>17821</v>
@@ -54394,7 +54288,7 @@
         <v>43388</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -54445,25 +54339,25 @@
         <v>112</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="BF233" s="1" t="s">
         <v>3104</v>
       </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
+      <c r="BH233" s="1" t="s">
         <v>3105</v>
-      </c>
-      <c r="BE233" s="1" t="s">
-        <v>3106</v>
-      </c>
-      <c r="BF233" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>3108</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54472,7 +54366,7 @@
         <v>106</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54490,16 +54384,16 @@
         <v>112</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>506</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54519,7 +54413,7 @@
         <v>250</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>91</v>
@@ -54540,16 +54434,16 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>100</v>
@@ -54582,7 +54476,7 @@
         <v>43980</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>107</v>
@@ -54636,10 +54530,10 @@
         <v>20</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54651,13 +54545,13 @@
         <v>1735</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BS234" s="3">
         <v>35915</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54681,7 +54575,7 @@
         <v>659</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CG234" s="1" t="s">
         <v>1947</v>
@@ -54719,22 +54613,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>100</v>
@@ -54770,7 +54664,7 @@
         <v>44135</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
@@ -54827,10 +54721,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54839,7 +54733,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54848,7 +54742,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>124</v>
@@ -54860,10 +54754,10 @@
         <v>1330</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="CG235" s="1" t="s">
         <v>1947</v>
@@ -54880,10 +54774,10 @@
         <v>87</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1304</v>
@@ -54898,7 +54792,7 @@
         <v>93</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>1304</v>
@@ -54907,19 +54801,19 @@
         <v>91</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="Q236" s="3">
         <v>20466</v>
@@ -54967,7 +54861,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -55000,19 +54894,19 @@
         <v>22</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55030,16 +54924,16 @@
         <v>112</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>313</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -55053,10 +54947,10 @@
         <v>87</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1304</v>
@@ -55071,7 +54965,7 @@
         <v>93</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1304</v>
@@ -55080,19 +54974,19 @@
         <v>91</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="Q237" s="3">
         <v>24006</v>
@@ -55137,7 +55031,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -55173,19 +55067,19 @@
         <v>22</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55212,10 +55106,10 @@
         <v>1126</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -55229,10 +55123,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1304</v>
@@ -55247,7 +55141,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1304</v>
@@ -55256,19 +55150,19 @@
         <v>91</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="Q238" s="3">
         <v>26193</v>
@@ -55313,7 +55207,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55349,19 +55243,19 @@
         <v>22</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55382,16 +55276,16 @@
         <v>112</v>
       </c>
       <c r="CC238" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="CD238" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="CG238" s="1" t="s">
         <v>3156</v>
-      </c>
-      <c r="CD238" s="1" t="s">
-        <v>3157</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>3158</v>
-      </c>
-      <c r="CG238" s="1" t="s">
-        <v>3159</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55405,10 +55299,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1304</v>
@@ -55423,7 +55317,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1304</v>
@@ -55432,19 +55326,19 @@
         <v>91</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="Q239" s="3">
         <v>24325</v>
@@ -55525,19 +55419,19 @@
         <v>22</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55558,7 +55452,7 @@
         <v>112</v>
       </c>
       <c r="CC239" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CD239" s="1" t="s">
         <v>605</v>
@@ -55567,7 +55461,7 @@
         <v>506</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55581,10 +55475,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1304</v>
@@ -55599,7 +55493,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1304</v>
@@ -55608,19 +55502,19 @@
         <v>91</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="Q240" s="3">
         <v>24848</v>
@@ -55668,7 +55562,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55704,19 +55598,19 @@
         <v>22</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55740,13 +55634,13 @@
         <v>489</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55760,10 +55654,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1304</v>
@@ -55778,7 +55672,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1304</v>
@@ -55787,19 +55681,19 @@
         <v>91</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="Q241" s="3">
         <v>27702</v>
@@ -55880,19 +55774,19 @@
         <v>22</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55913,16 +55807,16 @@
         <v>112</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>617</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55936,10 +55830,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1304</v>
@@ -55954,7 +55848,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1304</v>
@@ -55963,19 +55857,19 @@
         <v>91</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="Q242" s="3">
         <v>23289</v>
@@ -56023,7 +55917,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56059,19 +55953,19 @@
         <v>22</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56092,16 +55986,16 @@
         <v>112</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56115,10 +56009,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1304</v>
@@ -56133,7 +56027,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1304</v>
@@ -56142,19 +56036,19 @@
         <v>91</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="Q243" s="3">
         <v>16546</v>
@@ -56202,7 +56096,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -56238,19 +56132,19 @@
         <v>22</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56274,13 +56168,13 @@
         <v>1033</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56294,10 +56188,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1304</v>
@@ -56312,7 +56206,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1304</v>
@@ -56321,10 +56215,10 @@
         <v>91</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56366,7 +56260,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56402,7 +56296,7 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
@@ -56426,7 +56320,7 @@
         <v>112</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CG244" s="1" t="s">
         <v>130</v>
@@ -56443,10 +56337,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1304</v>
@@ -56461,7 +56355,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1304</v>
@@ -56470,19 +56364,19 @@
         <v>91</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>2350</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="Q245" s="3">
         <v>23611</v>
@@ -56527,7 +56421,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56560,19 +56454,19 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56590,16 +56484,16 @@
         <v>112</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="CD245" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="CG245" s="1" t="s">
         <v>3221</v>
-      </c>
-      <c r="CD245" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>3223</v>
-      </c>
-      <c r="CG245" s="1" t="s">
-        <v>3224</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56613,10 +56507,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1304</v>
@@ -56631,7 +56525,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1304</v>
@@ -56640,13 +56534,13 @@
         <v>91</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56730,19 +56624,19 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56763,16 +56657,16 @@
         <v>2287</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="CG246" s="1" t="s">
         <v>3231</v>
-      </c>
-      <c r="CD246" s="1" t="s">
-        <v>3232</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3234</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56786,10 +56680,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1304</v>
@@ -56804,7 +56698,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1304</v>
@@ -56813,19 +56707,19 @@
         <v>91</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="Q247" s="3">
         <v>26349</v>
@@ -56870,7 +56764,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56906,19 +56800,19 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56939,16 +56833,16 @@
         <v>112</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CG247" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56962,10 +56856,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1304</v>
@@ -56980,7 +56874,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1304</v>
@@ -56989,19 +56883,19 @@
         <v>91</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="Q248" s="3">
         <v>30589</v>
@@ -57049,7 +56943,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -57085,19 +56979,19 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57118,16 +57012,16 @@
         <v>112</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3253</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3254</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3255</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3256</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57141,10 +57035,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1304</v>
@@ -57159,7 +57053,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1304</v>
@@ -57168,19 +57062,19 @@
         <v>91</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="Q249" s="3">
         <v>27354</v>
@@ -57228,7 +57122,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -57264,19 +57158,19 @@
         <v>22</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57297,16 +57191,16 @@
         <v>112</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="CD249" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="CE249" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="CG249" s="1" t="s">
         <v>3264</v>
-      </c>
-      <c r="CD249" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>3266</v>
-      </c>
-      <c r="CG249" s="1" t="s">
-        <v>3267</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57320,10 +57214,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1304</v>
@@ -57338,7 +57232,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1304</v>
@@ -57347,19 +57241,19 @@
         <v>91</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="Q250" s="3">
         <v>13756</v>
@@ -57446,7 +57340,7 @@
         <v>22</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
@@ -57473,10 +57367,10 @@
         <v>112</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CE250" s="1" t="s">
         <v>209</v>
@@ -57496,10 +57390,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1304</v>
@@ -57514,7 +57408,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1304</v>
@@ -57523,19 +57417,19 @@
         <v>91</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="Q251" s="3">
         <v>26074</v>
@@ -57583,7 +57477,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57619,25 +57513,25 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW251" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BX251" s="1">
         <v>0</v>
@@ -57655,16 +57549,16 @@
         <v>112</v>
       </c>
       <c r="CC251" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="CD251" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57678,10 +57572,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1304</v>
@@ -57696,7 +57590,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1304</v>
@@ -57705,19 +57599,19 @@
         <v>91</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="Q252" s="3">
         <v>28808</v>
@@ -57762,7 +57656,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57798,19 +57692,19 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57831,16 +57725,16 @@
         <v>112</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CG252" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57854,10 +57748,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1304</v>
@@ -57872,7 +57766,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1304</v>
@@ -57881,19 +57775,19 @@
         <v>91</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="R253" s="1" t="s">
         <v>136</v>
@@ -57917,7 +57811,7 @@
         <v>107</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>378</v>
@@ -57932,7 +57826,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57962,19 +57856,19 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57992,16 +57886,16 @@
         <v>112</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>313</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -58015,10 +57909,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1304</v>
@@ -58033,7 +57927,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1304</v>
@@ -58042,19 +57936,19 @@
         <v>91</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="R254" s="1" t="s">
         <v>136</v>
@@ -58132,19 +58026,19 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -58162,16 +58056,16 @@
         <v>112</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="CD254" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="CG254" s="1" t="s">
         <v>3312</v>
-      </c>
-      <c r="CD254" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="CG254" s="1" t="s">
-        <v>3315</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58185,10 +58079,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1304</v>
@@ -58203,7 +58097,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1304</v>
@@ -58212,19 +58106,19 @@
         <v>91</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="Q255" s="3">
         <v>29466</v>
@@ -58305,19 +58199,19 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58335,16 +58229,16 @@
         <v>112</v>
       </c>
       <c r="CC255" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CD255" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="CG255" s="1" t="s">
         <v>3323</v>
-      </c>
-      <c r="CD255" s="1" t="s">
-        <v>3324</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3325</v>
-      </c>
-      <c r="CG255" s="1" t="s">
-        <v>3326</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58358,10 +58252,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1304</v>
@@ -58376,7 +58270,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1304</v>
@@ -58385,22 +58279,22 @@
         <v>91</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="Q256" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>136</v>
@@ -58442,7 +58336,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58475,19 +58369,19 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58505,16 +58399,16 @@
         <v>112</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3335</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3337</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3338</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58555,19 +58449,19 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="Q257" s="3">
         <v>31561</v>
@@ -58654,13 +58548,13 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
@@ -58669,7 +58563,7 @@
         <v>106</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58699,10 +58593,10 @@
         <v>1296</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58743,19 +58637,19 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="Q258" s="3">
         <v>32847</v>
@@ -58839,13 +58733,13 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -58860,13 +58754,13 @@
         <v>162</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BS258" s="3">
         <v>5347</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58890,16 +58784,16 @@
         <v>112</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="CD258" s="1" t="s">
         <v>461</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58940,19 +58834,19 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="Q259" s="3">
         <v>29297</v>
@@ -59036,7 +58930,7 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
@@ -59048,13 +58942,13 @@
         <v>221</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BS259" s="3">
         <v>5480</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59081,10 +58975,10 @@
         <v>475</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="CG259" s="1" t="s">
         <v>130</v>
@@ -59128,10 +59022,10 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -59161,10 +59055,10 @@
         <v>107</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="AH260" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="AJ260" s="1" t="s">
         <v>110</v>
@@ -59212,7 +59106,7 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -59242,7 +59136,7 @@
         <v>92</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>130</v>
@@ -59286,10 +59180,10 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -59319,10 +59213,10 @@
         <v>107</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="AH261" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="AJ261" s="1" t="s">
         <v>110</v>
@@ -59370,7 +59264,7 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -59397,7 +59291,7 @@
         <v>92</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CG261" s="1" t="s">
         <v>130</v>
@@ -59423,7 +59317,7 @@
         <v>430</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>112</v>
@@ -59435,22 +59329,22 @@
         <v>94</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -59486,13 +59380,13 @@
         <v>43847</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>2024</v>
@@ -59537,7 +59431,7 @@
         <v>112</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BB262" s="1">
         <v>2</v>
@@ -59546,10 +59440,10 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -59561,13 +59455,13 @@
         <v>119</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BS262" s="3">
         <v>34808</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59576,7 +59470,7 @@
         <v>0</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>124</v>
@@ -59585,13 +59479,13 @@
         <v>112</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="CG262" s="1" t="s">
         <v>1947</v>
@@ -59608,10 +59502,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1304</v>
@@ -59635,16 +59529,16 @@
         <v>91</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59698,7 +59592,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59728,7 +59622,7 @@
         <v>112</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BB263" s="1">
         <v>2</v>
@@ -59737,13 +59631,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59761,13 +59655,13 @@
         <v>112</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="CG263" s="1" t="s">
         <v>130</v>
@@ -59811,16 +59705,16 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -59859,7 +59753,7 @@
         <v>44246</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>107</v>
@@ -59916,10 +59810,10 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
@@ -59928,7 +59822,7 @@
         <v>106</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59952,13 +59846,13 @@
         <v>112</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>145</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="CG264" s="1" t="s">
         <v>130</v>
@@ -60002,16 +59896,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -60050,7 +59944,7 @@
         <v>44267</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>107</v>
@@ -60107,10 +60001,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -60122,13 +60016,13 @@
         <v>119</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BS265" s="3">
         <v>35711</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -60152,7 +60046,7 @@
         <v>386</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="CG265" s="1" t="s">
         <v>130</v>
@@ -60196,16 +60090,16 @@
         <v>96</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -60241,16 +60135,16 @@
         <v>44255</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="AH266" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="AJ266" s="1" t="s">
         <v>110</v>
@@ -60298,10 +60192,10 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
@@ -60310,13 +60204,13 @@
         <v>221</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BS266" s="3">
         <v>2302</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -60340,13 +60234,13 @@
         <v>92</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="CG266" s="1" t="s">
         <v>130</v>
@@ -60390,16 +60284,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -60435,7 +60329,7 @@
         <v>44316</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>107</v>
@@ -60492,10 +60386,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -60507,13 +60401,13 @@
         <v>221</v>
       </c>
       <c r="BR267" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="BS267" s="3">
         <v>35108</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -60531,16 +60425,16 @@
         <v>112</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>2041</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -60581,19 +60475,19 @@
         <v>96</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="Q268" s="3">
         <v>27265</v>
@@ -60677,19 +60571,19 @@
         <v>22</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60710,16 +60604,16 @@
         <v>112</v>
       </c>
       <c r="CC268" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="CD268" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="CG268" s="1" t="s">
         <v>3439</v>
-      </c>
-      <c r="CD268" s="1" t="s">
-        <v>3440</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3441</v>
-      </c>
-      <c r="CG268" s="1" t="s">
-        <v>3442</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60760,16 +60654,16 @@
         <v>96</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -60805,16 +60699,16 @@
         <v>44507</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="AI269" s="1" t="s">
         <v>112</v>
@@ -60865,16 +60759,16 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -60898,13 +60792,13 @@
         <v>92</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="CG269" s="1" t="s">
         <v>130</v>
@@ -60948,22 +60842,22 @@
         <v>96</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="Q270" s="3">
         <v>27433</v>
@@ -61044,13 +60938,13 @@
         <v>22</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="BI270" s="1" t="s">
         <v>880</v>
@@ -61065,13 +60959,13 @@
         <v>119</v>
       </c>
       <c r="BR270" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="BS270" s="3">
         <v>35278</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -61092,16 +60986,16 @@
         <v>112</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="CD270" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="CG270" s="1" t="s">
         <v>3458</v>
-      </c>
-      <c r="CD270" s="1" t="s">
-        <v>3459</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3460</v>
-      </c>
-      <c r="CG270" s="1" t="s">
-        <v>3461</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>885</v>
@@ -61111,6 +61005,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI270" xr:uid="{52C2E8AD-1445-4123-ADBD-B51AF213B401}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>